--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
@@ -5,44 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Laptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD40FBBD-4F94-43B0-AADC-1A64C716F97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A655CAB3-D946-4BD3-83FF-7EDA4E389EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$A$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$A$37</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$A$38</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$B$21:$L$21</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$B$22:$L$22</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$23:$L$23</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$B$25:$L$25</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$26:$L$26</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$B$28:$L$28</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$B$29:$L$29</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$B$31:$L$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$25</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$B$32:$L$32</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$B$34:$L$34</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$B$35:$L$35</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$B$37:$L$37</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet2!$B$38:$L$38</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$A$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$A$29</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$A$31</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$A$32</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$A$34</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$35</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
   <si>
     <t>metric</t>
   </si>
@@ -547,6 +520,9 @@
   </si>
   <si>
     <t>ndcg5</t>
+  </si>
+  <si>
+    <t>cat</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1530,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1862,7 +1838,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$28</c:f>
+              <c:f>Sheet2!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1939,7 +1915,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$30:$L$30</c:f>
+              <c:f>Sheet2!$B$33:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2068,7 +2044,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2197,7 +2173,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:f>Sheet2!$B$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2324,7 +2300,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$33:$L$33</c:f>
+              <c:f>Sheet2!$B$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2453,7 +2429,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$36:$L$36</c:f>
+              <c:f>Sheet2!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2580,7 +2556,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
+              <c:f>Sheet2!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4038,16 +4014,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12327</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>113180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>543710</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88527</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>39445</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>189380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4074,16 +4050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>700591</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13382,10 +13358,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C04FC8-98B4-4D21-B973-8DC25D99D0AA}">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14223,219 +14199,219 @@
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="A20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20">
+        <v>0.459060402684563</v>
+      </c>
+      <c r="C20">
+        <v>0.424161073825503</v>
+      </c>
+      <c r="D20">
+        <v>0.40536912751677801</v>
+      </c>
+      <c r="E20">
+        <v>0.288590604026845</v>
+      </c>
+      <c r="F20">
+        <v>0.28590604026845601</v>
+      </c>
+      <c r="G20">
+        <v>0.204026845637583</v>
+      </c>
+      <c r="H20">
+        <v>0.170469798657718</v>
+      </c>
+      <c r="I20">
+        <v>0.111409395973154</v>
+      </c>
+      <c r="J20">
+        <v>0.10738255033557</v>
+      </c>
+      <c r="K20">
+        <v>5.5033557046979799E-2</v>
+      </c>
+      <c r="L20">
+        <v>2.6845637583892E-3</v>
+      </c>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21">
+        <v>0.55979169328825795</v>
+      </c>
+      <c r="C21">
+        <v>0.52514283370669601</v>
+      </c>
+      <c r="D21">
+        <v>0.498496774901169</v>
+      </c>
+      <c r="E21">
+        <v>0.35142447826814099</v>
+      </c>
+      <c r="F21">
+        <v>0.343240355538937</v>
+      </c>
+      <c r="G21">
+        <v>0.26002681145014001</v>
+      </c>
+      <c r="H21">
+        <v>0.21458638019302201</v>
+      </c>
+      <c r="I21">
+        <v>0.13946144693044901</v>
+      </c>
+      <c r="J21">
+        <v>0.146673830854082</v>
+      </c>
+      <c r="K21">
+        <v>6.7673891407795006E-2</v>
+      </c>
+      <c r="L21">
+        <v>1.10904702428858E-2</v>
+      </c>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f>B21-B20</f>
+        <v>0.10073129060369496</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:L22" si="6">C21-C20</f>
+        <v>0.10098175988119301</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="6"/>
+        <v>9.3127647384390999E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="6"/>
+        <v>6.2833874241295995E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="6"/>
+        <v>5.7334315270480996E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="6"/>
+        <v>5.5999965812557007E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="6"/>
+        <v>4.4116581535304011E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="6"/>
+        <v>2.8052050957295016E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9291280518512009E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2640334360815207E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="6"/>
+        <v>8.4059064844966003E-3</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B21">
+      <c r="B24">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <v>0.1</v>
       </c>
-      <c r="D21">
+      <c r="D24">
         <v>0.2</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>0.3</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>0.4</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>0.5</v>
       </c>
-      <c r="H21">
+      <c r="H24">
         <v>0.6</v>
       </c>
-      <c r="I21">
+      <c r="I24">
         <v>0.7</v>
       </c>
-      <c r="J21">
+      <c r="J24">
         <v>0.8</v>
       </c>
-      <c r="K21">
+      <c r="K24">
         <v>0.9</v>
       </c>
-      <c r="L21">
+      <c r="L24">
         <v>1</v>
-      </c>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9.0766435605531798E-2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8.7018230859500806E-2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8.1525013409947E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>7.8255389940916006E-2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>7.2170265017906604E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>6.6554601145013298E-2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>6.3514250918905904E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>5.8801450242434099E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <v>5.1685323059304199E-2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>4.8653062067683002E-2</v>
-      </c>
-      <c r="L22" s="2">
-        <v>4.5792985982288897E-2</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.134699200447888</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.124327386549447</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.11686497031543</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.1071389721275</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.100733615931531</v>
-      </c>
-      <c r="G23" s="2">
-        <v>9.1931554608302601E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>8.2755581611159298E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>7.5113876867294302E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>6.7729374168087095E-2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>6.1746164259453999E-2</v>
-      </c>
-      <c r="L23" s="2">
-        <v>5.2803898147596E-2</v>
-      </c>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <f>B23-B22</f>
-        <v>4.3932764842356198E-2</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" ref="C24:L24" si="6">C23-C22</f>
-        <v>3.7309155689946194E-2</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="6"/>
-        <v>3.5339956905483E-2</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="6"/>
-        <v>2.8883582186583989E-2</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="6"/>
-        <v>2.85633509136244E-2</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="6"/>
-        <v>2.5376953463289303E-2</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="6"/>
-        <v>1.9241330692253394E-2</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6312426624860203E-2</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6044051108782896E-2</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="6"/>
-        <v>1.3093102191770997E-2</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="6"/>
-        <v>7.0109121653071024E-3</v>
       </c>
       <c r="M24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2">
-        <v>3.79477801647864E-2</v>
+        <v>9.0766435605531798E-2</v>
       </c>
       <c r="C25" s="2">
-        <v>3.7677124334865898E-2</v>
+        <v>8.7018230859500806E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>3.2658805289213201E-2</v>
+        <v>8.1525013409947E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>2.8479162493604E-2</v>
+        <v>7.8255389940916006E-2</v>
       </c>
       <c r="F25" s="2">
-        <v>3.3310180423950099E-2</v>
+        <v>7.2170265017906604E-2</v>
       </c>
       <c r="G25" s="2">
-        <v>2.4570352650016902E-2</v>
+        <v>6.6554601145013298E-2</v>
       </c>
       <c r="H25" s="2">
-        <v>2.1186449668991799E-2</v>
+        <v>6.3514250918905904E-2</v>
       </c>
       <c r="I25" s="2">
-        <v>2.39496086688584E-2</v>
+        <v>5.8801450242434099E-2</v>
       </c>
       <c r="J25" s="2">
-        <v>2.0780655633942598E-2</v>
+        <v>5.1685323059304199E-2</v>
       </c>
       <c r="K25" s="2">
-        <v>1.8680604336581998E-2</v>
+        <v>4.8653062067683002E-2</v>
       </c>
       <c r="L25" s="2">
-        <v>1.6340516674615901E-2</v>
+        <v>4.5792985982288897E-2</v>
       </c>
       <c r="M25"/>
     </row>
@@ -14444,123 +14420,123 @@
         <v>158</v>
       </c>
       <c r="B26" s="2">
-        <v>0.175712254873687</v>
+        <v>0.134699200447888</v>
       </c>
       <c r="C26" s="2">
-        <v>0.16350742419238001</v>
+        <v>0.124327386549447</v>
       </c>
       <c r="D26" s="2">
-        <v>0.149274827692294</v>
+        <v>0.11686497031543</v>
       </c>
       <c r="E26" s="2">
-        <v>0.142922178628964</v>
+        <v>0.1071389721275</v>
       </c>
       <c r="F26" s="2">
-        <v>0.12994801213624901</v>
+        <v>0.100733615931531</v>
       </c>
       <c r="G26" s="2">
-        <v>0.11718597248715901</v>
+        <v>9.1931554608302601E-2</v>
       </c>
       <c r="H26" s="2">
-        <v>0.107579334539013</v>
+        <v>8.2755581611159298E-2</v>
       </c>
       <c r="I26" s="2">
-        <v>0.101642515623019</v>
+        <v>7.5113876867294302E-2</v>
       </c>
       <c r="J26" s="2">
-        <v>9.2205469463571998E-2</v>
+        <v>6.7729374168087095E-2</v>
       </c>
       <c r="K26" s="2">
-        <v>7.8037212625486893E-2</v>
+        <v>6.1746164259453999E-2</v>
       </c>
       <c r="L26" s="2">
-        <v>6.6452587552650294E-2</v>
+        <v>5.2803898147596E-2</v>
       </c>
       <c r="M26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f>B26-B25</f>
-        <v>0.1377644747089006</v>
+        <v>4.3932764842356198E-2</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ref="C27:L27" si="7">C26-C25</f>
-        <v>0.12583029985751412</v>
+        <v>3.7309155689946194E-2</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="7"/>
-        <v>0.1166160224030808</v>
+        <v>3.5339956905483E-2</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="7"/>
-        <v>0.11444301613536001</v>
+        <v>2.8883582186583989E-2</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="7"/>
-        <v>9.6637831712298922E-2</v>
+        <v>2.85633509136244E-2</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="7"/>
-        <v>9.2615619837142102E-2</v>
+        <v>2.5376953463289303E-2</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="7"/>
-        <v>8.6392884870021197E-2</v>
+        <v>1.9241330692253394E-2</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="7"/>
-        <v>7.7692906954160604E-2</v>
+        <v>1.6312426624860203E-2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="7"/>
-        <v>7.1424813829629397E-2</v>
+        <v>1.6044051108782896E-2</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="7"/>
-        <v>5.9356608288904891E-2</v>
+        <v>1.3093102191770997E-2</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="7"/>
-        <v>5.011207087803439E-2</v>
+        <v>7.0109121653071024E-3</v>
       </c>
       <c r="M27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2">
-        <v>0.13078640618345799</v>
+        <v>3.79477801647864E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>0.12116157776618799</v>
+        <v>3.7677124334865898E-2</v>
       </c>
       <c r="D28" s="2">
-        <v>0.11766568673540199</v>
+        <v>3.2658805289213201E-2</v>
       </c>
       <c r="E28" s="2">
-        <v>0.10933827413554</v>
+        <v>2.8479162493604E-2</v>
       </c>
       <c r="F28" s="2">
-        <v>9.52864493491761E-2</v>
+        <v>3.3310180423950099E-2</v>
       </c>
       <c r="G28" s="2">
-        <v>8.69895682986674E-2</v>
+        <v>2.4570352650016902E-2</v>
       </c>
       <c r="H28" s="2">
-        <v>8.9688828823302105E-2</v>
+        <v>2.1186449668991799E-2</v>
       </c>
       <c r="I28" s="2">
-        <v>7.5767231217606798E-2</v>
+        <v>2.39496086688584E-2</v>
       </c>
       <c r="J28" s="2">
-        <v>6.7454288494412706E-2</v>
+        <v>2.0780655633942598E-2</v>
       </c>
       <c r="K28" s="2">
-        <v>6.2199852008378402E-2</v>
+        <v>1.8680604336581998E-2</v>
       </c>
       <c r="L28" s="2">
-        <v>5.1603826878811702E-2</v>
+        <v>1.6340516674615901E-2</v>
       </c>
       <c r="M28"/>
     </row>
@@ -14569,123 +14545,123 @@
         <v>158</v>
       </c>
       <c r="B29" s="2">
-        <v>0.13355087057064699</v>
+        <v>0.175712254873687</v>
       </c>
       <c r="C29" s="2">
-        <v>0.12678910914577399</v>
+        <v>0.16350742419238001</v>
       </c>
       <c r="D29" s="2">
-        <v>0.118638526159215</v>
+        <v>0.149274827692294</v>
       </c>
       <c r="E29" s="2">
-        <v>0.110046530676773</v>
+        <v>0.142922178628964</v>
       </c>
       <c r="F29" s="2">
-        <v>0.101593236932199</v>
+        <v>0.12994801213624901</v>
       </c>
       <c r="G29" s="2">
-        <v>9.2824227374714199E-2</v>
+        <v>0.11718597248715901</v>
       </c>
       <c r="H29" s="2">
-        <v>8.2491669219013103E-2</v>
+        <v>0.107579334539013</v>
       </c>
       <c r="I29" s="2">
-        <v>8.0042805805704595E-2</v>
+        <v>0.101642515623019</v>
       </c>
       <c r="J29" s="2">
-        <v>7.0249061572817795E-2</v>
+        <v>9.2205469463571998E-2</v>
       </c>
       <c r="K29" s="2">
-        <v>5.88792961447938E-2</v>
+        <v>7.8037212625486893E-2</v>
       </c>
       <c r="L29" s="2">
-        <v>5.3543618311818399E-2</v>
+        <v>6.6452587552650294E-2</v>
       </c>
       <c r="M29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f>B29-B28</f>
-        <v>2.7644643871889973E-3</v>
+        <v>0.1377644747089006</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ref="C30:L30" si="8">C29-C28</f>
-        <v>5.6275313795859927E-3</v>
+        <v>0.12583029985751412</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="8"/>
-        <v>9.728394238130017E-4</v>
+        <v>0.1166160224030808</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="8"/>
-        <v>7.0825654123300719E-4</v>
+        <v>0.11444301613536001</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="8"/>
-        <v>6.306787583022902E-3</v>
+        <v>9.6637831712298922E-2</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
-        <v>5.8346590760467998E-3</v>
+        <v>9.2615619837142102E-2</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="8"/>
-        <v>-7.1971596042890024E-3</v>
+        <v>8.6392884870021197E-2</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="8"/>
-        <v>4.2755745880977969E-3</v>
+        <v>7.7692906954160604E-2</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="8"/>
-        <v>2.7947730784050884E-3</v>
+        <v>7.1424813829629397E-2</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="8"/>
-        <v>-3.3205558635846025E-3</v>
+        <v>5.9356608288904891E-2</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="8"/>
-        <v>1.9397914330066962E-3</v>
+        <v>5.011207087803439E-2</v>
       </c>
       <c r="M30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2">
-        <v>7.7041559217059996E-3</v>
+        <v>0.13078640618345799</v>
       </c>
       <c r="C31" s="2">
-        <v>7.1661738426331998E-3</v>
+        <v>0.12116157776618799</v>
       </c>
       <c r="D31" s="2">
-        <v>3.5035698881116001E-3</v>
+        <v>0.11766568673540199</v>
       </c>
       <c r="E31" s="2">
-        <v>7.9663482509921002E-3</v>
+        <v>0.10933827413554</v>
       </c>
       <c r="F31" s="2">
-        <v>8.3125652208404996E-3</v>
+        <v>9.52864493491761E-2</v>
       </c>
       <c r="G31" s="2">
-        <v>6.6626701151995E-3</v>
+        <v>8.69895682986674E-2</v>
       </c>
       <c r="H31" s="2">
-        <v>5.5281054132367002E-3</v>
+        <v>8.9688828823302105E-2</v>
       </c>
       <c r="I31" s="2">
-        <v>6.9840253608802003E-3</v>
+        <v>7.5767231217606798E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>5.3573183159474E-3</v>
+        <v>6.7454288494412706E-2</v>
       </c>
       <c r="K31" s="2">
-        <v>4.7950740670770998E-3</v>
+        <v>6.2199852008378402E-2</v>
       </c>
       <c r="L31" s="2">
-        <v>5.1543158221290996E-3</v>
+        <v>5.1603826878811702E-2</v>
       </c>
       <c r="M31"/>
     </row>
@@ -14694,123 +14670,123 @@
         <v>158</v>
       </c>
       <c r="B32" s="2">
-        <v>3.06440114898732E-2</v>
+        <v>0.13355087057064699</v>
       </c>
       <c r="C32" s="2">
-        <v>2.5653145485653402E-2</v>
+        <v>0.12678910914577399</v>
       </c>
       <c r="D32" s="2">
-        <v>3.04407828255308E-2</v>
+        <v>0.118638526159215</v>
       </c>
       <c r="E32" s="2">
-        <v>2.5928309374792999E-2</v>
+        <v>0.110046530676773</v>
       </c>
       <c r="F32" s="2">
-        <v>2.4007389462640499E-2</v>
+        <v>0.101593236932199</v>
       </c>
       <c r="G32" s="2">
-        <v>2.6800199038663299E-2</v>
+        <v>9.2824227374714199E-2</v>
       </c>
       <c r="H32" s="2">
-        <v>2.3513078005508101E-2</v>
+        <v>8.2491669219013103E-2</v>
       </c>
       <c r="I32" s="2">
-        <v>2.23288170231828E-2</v>
+        <v>8.0042805805704595E-2</v>
       </c>
       <c r="J32" s="2">
-        <v>1.92258371306736E-2</v>
+        <v>7.0249061572817795E-2</v>
       </c>
       <c r="K32" s="2">
-        <v>1.7100166674632801E-2</v>
+        <v>5.88792961447938E-2</v>
       </c>
       <c r="L32" s="2">
-        <v>1.3246552946504399E-2</v>
+        <v>5.3543618311818399E-2</v>
       </c>
       <c r="M32"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f>B32-B31</f>
-        <v>2.2939855568167199E-2</v>
+        <v>2.7644643871889973E-3</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ref="C33:L33" si="9">C32-C31</f>
-        <v>1.8486971643020201E-2</v>
+        <v>5.6275313795859927E-3</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="9"/>
-        <v>2.69372129374192E-2</v>
+        <v>9.728394238130017E-4</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="9"/>
-        <v>1.7961961123800899E-2</v>
+        <v>7.0825654123300719E-4</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="9"/>
-        <v>1.56948242418E-2</v>
+        <v>6.306787583022902E-3</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="9"/>
-        <v>2.01375289234638E-2</v>
+        <v>5.8346590760467998E-3</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="9"/>
-        <v>1.79849725922714E-2</v>
+        <v>-7.1971596042890024E-3</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="9"/>
-        <v>1.53447916623026E-2</v>
+        <v>4.2755745880977969E-3</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="9"/>
-        <v>1.38685188147262E-2</v>
+        <v>2.7947730784050884E-3</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="9"/>
-        <v>1.23050926075557E-2</v>
+        <v>-3.3205558635846025E-3</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="9"/>
-        <v>8.0922371243753004E-3</v>
+        <v>1.9397914330066962E-3</v>
       </c>
       <c r="M33"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B34" s="2">
-        <v>1.55124917124469E-2</v>
+        <v>7.7041559217059996E-3</v>
       </c>
       <c r="C34" s="2">
-        <v>1.3332825064655799E-2</v>
+        <v>7.1661738426331998E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>9.1510315200439996E-3</v>
+        <v>3.5035698881116001E-3</v>
       </c>
       <c r="E34" s="2">
-        <v>1.0819848769609E-2</v>
+        <v>7.9663482509921002E-3</v>
       </c>
       <c r="F34" s="2">
-        <v>1.25850531643489E-2</v>
+        <v>8.3125652208404996E-3</v>
       </c>
       <c r="G34" s="2">
-        <v>1.1531721028210699E-2</v>
+        <v>6.6626701151995E-3</v>
       </c>
       <c r="H34" s="2">
-        <v>1.30245492213632E-2</v>
+        <v>5.5281054132367002E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>1.4883840623743899E-2</v>
+        <v>6.9840253608802003E-3</v>
       </c>
       <c r="J34" s="2">
-        <v>1.15663874081685E-2</v>
+        <v>5.3573183159474E-3</v>
       </c>
       <c r="K34" s="2">
-        <v>1.22870179652613E-2</v>
+        <v>4.7950740670770998E-3</v>
       </c>
       <c r="L34" s="2">
-        <v>9.8572338825922007E-3</v>
+        <v>5.1543158221290996E-3</v>
       </c>
       <c r="M34"/>
     </row>
@@ -14819,123 +14795,123 @@
         <v>158</v>
       </c>
       <c r="B35" s="2">
-        <v>1.30446865898958E-2</v>
+        <v>3.06440114898732E-2</v>
       </c>
       <c r="C35" s="2">
-        <v>1.2805815387373E-2</v>
+        <v>2.5653145485653402E-2</v>
       </c>
       <c r="D35" s="2">
-        <v>1.3764129429328999E-2</v>
+        <v>3.04407828255308E-2</v>
       </c>
       <c r="E35" s="2">
-        <v>1.0659046686786199E-2</v>
+        <v>2.5928309374792999E-2</v>
       </c>
       <c r="F35" s="2">
-        <v>1.0631347837830899E-2</v>
+        <v>2.4007389462640499E-2</v>
       </c>
       <c r="G35" s="2">
-        <v>1.14091378430399E-2</v>
+        <v>2.6800199038663299E-2</v>
       </c>
       <c r="H35" s="2">
-        <v>9.3741635422001004E-3</v>
+        <v>2.3513078005508101E-2</v>
       </c>
       <c r="I35" s="2">
-        <v>8.1500740597845005E-3</v>
+        <v>2.23288170231828E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>9.8423038875517007E-3</v>
+        <v>1.92258371306736E-2</v>
       </c>
       <c r="K35" s="2">
-        <v>6.6876549540825997E-3</v>
+        <v>1.7100166674632801E-2</v>
       </c>
       <c r="L35" s="2">
-        <v>8.6546342754011008E-3</v>
+        <v>1.3246552946504399E-2</v>
       </c>
       <c r="M35"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f>B35-B34</f>
-        <v>-2.4678051225510995E-3</v>
+        <v>2.2939855568167199E-2</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" ref="C36:L36" si="10">C35-C34</f>
-        <v>-5.2700967728279945E-4</v>
+        <v>1.8486971643020201E-2</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>4.6130979092849998E-3</v>
+        <v>2.69372129374192E-2</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="10"/>
-        <v>-1.6080208282280052E-4</v>
+        <v>1.7961961123800899E-2</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="10"/>
-        <v>-1.9537053265180002E-3</v>
+        <v>1.56948242418E-2</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2258318517079959E-4</v>
+        <v>2.01375289234638E-2</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="10"/>
-        <v>-3.6503856791630998E-3</v>
+        <v>1.79849725922714E-2</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="10"/>
-        <v>-6.7337665639593987E-3</v>
+        <v>1.53447916623026E-2</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="10"/>
-        <v>-1.7240835206167992E-3</v>
+        <v>1.38685188147262E-2</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="10"/>
-        <v>-5.5993630111787008E-3</v>
+        <v>1.23050926075557E-2</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2025996071910999E-3</v>
+        <v>8.0922371243753004E-3</v>
       </c>
       <c r="M36"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B37" s="2">
-        <v>0</v>
+        <v>1.55124917124469E-2</v>
       </c>
       <c r="C37" s="2">
-        <v>2.0883380535027E-3</v>
+        <v>1.3332825064655799E-2</v>
       </c>
       <c r="D37" s="2">
-        <v>2.6435884907660001E-4</v>
+        <v>9.1510315200439996E-3</v>
       </c>
       <c r="E37" s="2">
-        <v>1.0288641288172999E-3</v>
+        <v>1.0819848769609E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>7.9183286360219997E-4</v>
+        <v>1.25850531643489E-2</v>
       </c>
       <c r="G37" s="2">
-        <v>8.1181169976009997E-4</v>
+        <v>1.1531721028210699E-2</v>
       </c>
       <c r="H37" s="2">
-        <v>1.8306141209740001E-3</v>
+        <v>1.30245492213632E-2</v>
       </c>
       <c r="I37" s="2">
-        <v>7.1672794518929999E-4</v>
+        <v>1.4883840623743899E-2</v>
       </c>
       <c r="J37" s="2">
-        <v>7.3022735721680004E-4</v>
+        <v>1.15663874081685E-2</v>
       </c>
       <c r="K37" s="2">
-        <v>2.0699469626161999E-3</v>
+        <v>1.22870179652613E-2</v>
       </c>
       <c r="L37" s="2">
-        <v>1.1171679444839E-3</v>
+        <v>9.8572338825922007E-3</v>
       </c>
       <c r="M37"/>
     </row>
@@ -14944,150 +14920,343 @@
         <v>158</v>
       </c>
       <c r="B38" s="2">
-        <v>1.304181695024E-4</v>
+        <v>1.30446865898958E-2</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
+        <v>1.2805815387373E-2</v>
       </c>
       <c r="D38" s="2">
-        <v>3.4540429217359999E-4</v>
+        <v>1.3764129429328999E-2</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>1.0659046686786199E-2</v>
       </c>
       <c r="F38" s="2">
-        <v>2.1178367211540001E-4</v>
+        <v>1.0631347837830899E-2</v>
       </c>
       <c r="G38" s="2">
-        <v>3.1937913792578002E-3</v>
+        <v>1.14091378430399E-2</v>
       </c>
       <c r="H38" s="2">
-        <v>1.5111929153717001E-3</v>
+        <v>9.3741635422001004E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>8.1500740597845005E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>3.9477701857900001E-4</v>
+        <v>9.8423038875517007E-3</v>
       </c>
       <c r="K38" s="2">
-        <v>0</v>
+        <v>6.6876549540825997E-3</v>
       </c>
       <c r="L38" s="2">
-        <v>5.396127810059E-4</v>
-      </c>
+        <v>8.6546342754011008E-3</v>
+      </c>
+      <c r="M38"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f>B38-B37</f>
-        <v>1.304181695024E-4</v>
+        <v>-2.4678051225510995E-3</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ref="C39:L39" si="11">C38-C37</f>
-        <v>-2.0883380535027E-3</v>
+        <v>-5.2700967728279945E-4</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="11"/>
-        <v>8.1045443096999976E-5</v>
+        <v>4.6130979092849998E-3</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="11"/>
-        <v>-1.0288641288172999E-3</v>
+        <v>-1.6080208282280052E-4</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="11"/>
-        <v>-5.8004919148679996E-4</v>
+        <v>-1.9537053265180002E-3</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="11"/>
-        <v>2.3819796794977001E-3</v>
+        <v>-1.2258318517079959E-4</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="11"/>
-        <v>-3.1942120560230001E-4</v>
+        <v>-3.6503856791630998E-3</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="11"/>
-        <v>-7.1672794518929999E-4</v>
+        <v>-6.7337665639593987E-3</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="11"/>
-        <v>-3.3545033863780003E-4</v>
+        <v>-1.7240835206167992E-3</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="11"/>
-        <v>-2.0699469626161999E-3</v>
+        <v>-5.5993630111787008E-3</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="11"/>
+        <v>-1.2025996071910999E-3</v>
+      </c>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2.0883380535027E-3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2.6435884907660001E-4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.0288641288172999E-3</v>
+      </c>
+      <c r="F40" s="2">
+        <v>7.9183286360219997E-4</v>
+      </c>
+      <c r="G40" s="2">
+        <v>8.1181169976009997E-4</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1.8306141209740001E-3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>7.1672794518929999E-4</v>
+      </c>
+      <c r="J40" s="2">
+        <v>7.3022735721680004E-4</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2.0699469626161999E-3</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1.1171679444839E-3</v>
+      </c>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.304181695024E-4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3.4540429217359999E-4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2.1178367211540001E-4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3.1937913792578002E-3</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1.5111929153717001E-3</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>3.9477701857900001E-4</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>5.396127810059E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <f>B41-B40</f>
+        <v>1.304181695024E-4</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" ref="C42:L42" si="12">C41-C40</f>
+        <v>-2.0883380535027E-3</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="12"/>
+        <v>8.1045443096999976E-5</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="12"/>
+        <v>-1.0288641288172999E-3</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="12"/>
+        <v>-5.8004919148679996E-4</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="12"/>
+        <v>2.3819796794977001E-3</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="12"/>
+        <v>-3.1942120560230001E-4</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="12"/>
+        <v>-7.1672794518929999E-4</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="12"/>
+        <v>-3.3545033863780003E-4</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="12"/>
+        <v>-2.0699469626161999E-3</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="12"/>
         <v>-5.7755516347800001E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-    </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
+      <c r="A43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43">
+        <v>0.51946308724832202</v>
+      </c>
+      <c r="C43">
+        <v>0.45234899328859002</v>
+      </c>
+      <c r="D43">
+        <v>0.440268456375838</v>
+      </c>
+      <c r="E43">
+        <v>0.39463087248322098</v>
+      </c>
+      <c r="F43">
+        <v>0.35302013422818701</v>
+      </c>
+      <c r="G43">
+        <v>0.28187919463087202</v>
+      </c>
+      <c r="H43">
+        <v>0.27919463087248297</v>
+      </c>
+      <c r="I43">
+        <v>0.169127516778523</v>
+      </c>
+      <c r="J43">
+        <v>0.12483221476509999</v>
+      </c>
+      <c r="K43">
+        <v>8.1879194630872398E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.47651006711409E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
+      <c r="A44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44">
+        <v>0.59659542241813202</v>
+      </c>
+      <c r="C44">
+        <v>0.52472763506901599</v>
+      </c>
+      <c r="D44">
+        <v>0.50016729758124601</v>
+      </c>
+      <c r="E44">
+        <v>0.44829776380872099</v>
+      </c>
+      <c r="F44">
+        <v>0.411318255882969</v>
+      </c>
+      <c r="G44">
+        <v>0.31277492632279902</v>
+      </c>
+      <c r="H44">
+        <v>0.32053914020678798</v>
+      </c>
+      <c r="I44">
+        <v>0.19782202315321001</v>
+      </c>
+      <c r="J44">
+        <v>0.13911546484374601</v>
+      </c>
+      <c r="K44">
+        <v>9.4979970678124706E-2</v>
+      </c>
+      <c r="L44">
+        <v>2.39829381134074E-2</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>B44-B43</f>
+        <v>7.7132335169809996E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:L45" si="13">C44-C43</f>
+        <v>7.2378641780425967E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="13"/>
+        <v>5.9898841205408004E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="13"/>
+        <v>5.366689132550001E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="13"/>
+        <v>5.8298121654781987E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="13"/>
+        <v>3.0895731691926998E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="13"/>
+        <v>4.1344509334305002E-2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="13"/>
+        <v>2.8694506374687012E-2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="13"/>
+        <v>1.4283250078646018E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="13"/>
+        <v>1.3100776047252308E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="13"/>
+        <v>9.2178374422665008E-3</v>
+      </c>
+      <c r="M45"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46"/>
@@ -15102,17 +15271,6 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B47"/>
@@ -15128,20 +15286,6 @@
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-    </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49"/>
       <c r="C49"/>
@@ -15155,6 +15299,31 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51"/>
@@ -15169,17 +15338,6 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51"/>
-      <c r="X51"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52"/>
@@ -15195,20 +15353,6 @@
       <c r="L52"/>
       <c r="M52"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-    </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54"/>
       <c r="C54"/>
@@ -15222,6 +15366,31 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56"/>
@@ -15236,17 +15405,6 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57"/>
@@ -15262,20 +15420,6 @@
       <c r="L57"/>
       <c r="M57"/>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-    </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59"/>
       <c r="C59"/>
@@ -15289,6 +15433,31 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61"/>
@@ -15303,17 +15472,6 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62"/>
@@ -15329,20 +15487,6 @@
       <c r="L62"/>
       <c r="M62"/>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-    </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64"/>
       <c r="C64"/>
@@ -15356,6 +15500,31 @@
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66"/>
@@ -15370,17 +15539,6 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67"/>
@@ -15396,20 +15554,6 @@
       <c r="L67"/>
       <c r="M67"/>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-    </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69"/>
       <c r="C69"/>
@@ -15423,6 +15567,59 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/SemEval-14/Laptop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A655CAB3-D946-4BD3-83FF-7EDA4E389EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3D2CB4-87F8-4E40-BB23-490A799A6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33560" windowHeight="21580" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,6 +573,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF078179"/>
+      <color rgb="FF00C2B3"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -666,8 +668,137 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="078179"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="078179"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.10073129060369496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10098175988119301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3127647384390999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2833874241295995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7334315270480996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5999965812557007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4116581535304011E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8052050957295016E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9291280518512009E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2640334360815207E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4059064844966003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B4D-D444-9BCC-B7EB5F94D3B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$8</c:f>
@@ -796,7 +927,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -925,7 +1056,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -1054,7 +1185,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$11</c:f>
@@ -1181,7 +1312,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -1310,7 +1441,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -1680,10 +1811,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69587335492637892"/>
-          <c:y val="0.20960848643919511"/>
-          <c:w val="0.27965879265091864"/>
-          <c:h val="0.51562117235345573"/>
+          <c:x val="0.73997671657072139"/>
+          <c:y val="0.15697679237463738"/>
+          <c:w val="0.24210190657335046"/>
+          <c:h val="0.49224261441004086"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1834,8 +1965,137 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="078179"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="078179"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$45:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.7132335169809996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2378641780425967E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9898841205408004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.366689132550001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8298121654781987E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0895731691926998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1344509334305002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8694506374687012E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4283250078646018E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3100776047252308E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2178374422665008E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D30B-924B-87AC-9809EDA04636}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$31</c:f>
@@ -1964,7 +2224,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -2093,7 +2353,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -2222,7 +2482,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$11</c:f>
@@ -2349,7 +2609,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -2478,7 +2738,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -2848,10 +3108,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69587335492637892"/>
-          <c:y val="0.20960848643919511"/>
-          <c:w val="0.27965879265091864"/>
-          <c:h val="0.51562117235345573"/>
+          <c:x val="0.73264250719099311"/>
+          <c:y val="0.17201438635959979"/>
+          <c:w val="0.24509410796633194"/>
+          <c:h val="0.50352080989876269"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4392,19 +4652,19 @@
       <selection sqref="A1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="34" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="45" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="34" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="45" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="56" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="67" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.140625" style="2"/>
+    <col min="57" max="67" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4546,7 +4806,7 @@
         <v>4.2857142857142802E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4617,7 +4877,7 @@
         <v>2.8035714285714199E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4688,7 +4948,7 @@
         <v>1.8839285714285701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -4759,7 +5019,7 @@
         <v>8.1250000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4830,7 +5090,7 @@
         <v>1.8797831632653E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4901,7 +5161,7 @@
         <v>6.3169642857142799E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -4972,7 +5232,7 @@
         <v>8.7919146825396796E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -5043,7 +5303,7 @@
         <v>0.38952168367346901</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -5114,7 +5374,7 @@
         <v>4.2857142857142802E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5185,7 +5445,7 @@
         <v>5.2803898147596E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5256,7 +5516,7 @@
         <v>6.1753836248871999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5327,7 +5587,7 @@
         <v>0.131396201278251</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5398,7 +5658,7 @@
         <v>1.8797831632653E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -5469,7 +5729,7 @@
         <v>3.95252858087679E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -5540,7 +5800,7 @@
         <v>4.2886284722222202E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -5611,7 +5871,7 @@
         <v>5.3634844185665401E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -5682,7 +5942,7 @@
         <v>4.2857142857142802E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -5753,7 +6013,7 @@
         <v>0.113392857142857</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -5824,7 +6084,7 @@
         <v>0.159821428571428</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -5895,7 +6155,7 @@
         <v>0.59464285714285703</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -5966,7 +6226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -6037,7 +6297,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -6108,7 +6368,7 @@
         <v>3.1607142857142799E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -6179,7 +6439,7 @@
         <v>2.2589285714285701E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -6250,7 +6510,7 @@
         <v>8.2767857142857001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -6321,7 +6581,7 @@
         <v>2.8594458616779998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -6392,7 +6652,7 @@
         <v>7.9501133786848005E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -6463,7 +6723,7 @@
         <v>0.112272534013605</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -6534,7 +6794,7 @@
         <v>0.397300524376417</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -6605,7 +6865,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -6676,7 +6936,7 @@
         <v>6.6452587552650294E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -6747,7 +7007,7 @@
         <v>7.7994113108391397E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -6818,7 +7078,7 @@
         <v>0.144348024747635</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -6889,7 +7149,7 @@
         <v>2.8594458616779998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -6960,7 +7220,7 @@
         <v>4.9973072562358202E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -7031,7 +7291,7 @@
         <v>5.4871031746031702E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -7102,7 +7362,7 @@
         <v>6.5575751899905999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -7173,7 +7433,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -7244,7 +7504,7 @@
         <v>0.13571428571428501</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -7315,7 +7575,7 @@
         <v>0.188392857142857</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
@@ -7386,7 +7646,7 @@
         <v>0.58035714285714202</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -7457,7 +7717,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
@@ -7528,7 +7788,7 @@
         <v>4.1071428571428502E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -7599,7 +7859,7 @@
         <v>2.7857142857142799E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
@@ -7670,7 +7930,7 @@
         <v>2.1250000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -7741,7 +8001,7 @@
         <v>8.4285714285713999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -7812,7 +8072,7 @@
         <v>2.1083120748299301E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -7883,7 +8143,7 @@
         <v>6.5105938208616695E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -7954,7 +8214,7 @@
         <v>9.90415958049886E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -8025,7 +8285,7 @@
         <v>0.40892325680272101</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -8096,7 +8356,7 @@
         <v>4.1071428571428502E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -8167,7 +8427,7 @@
         <v>5.3543618311818399E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
@@ -8238,7 +8498,7 @@
         <v>6.6361773485632006E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -8309,7 +8569,7 @@
         <v>0.139190906197453</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -8380,7 +8640,7 @@
         <v>2.1083120748299301E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
@@ -8451,7 +8711,7 @@
         <v>4.0794713718820798E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
@@ -8522,7 +8782,7 @@
         <v>4.6030624055177598E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
@@ -8593,7 +8853,7 @@
         <v>5.8063758856060001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -8664,7 +8924,7 @@
         <v>4.1071428571428502E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -8735,7 +8995,7 @@
         <v>0.108035714285714</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>19</v>
       </c>
@@ -8806,7 +9066,7 @@
         <v>0.16696428571428501</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>20</v>
       </c>
@@ -8877,7 +9137,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
@@ -8948,7 +9208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
@@ -9019,7 +9279,7 @@
         <v>1.16071428571428E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -9090,7 +9350,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -9161,7 +9421,7 @@
         <v>5.8928571428570999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>4</v>
       </c>
@@ -9232,7 +9492,7 @@
         <v>5.1071428571427997E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -9303,7 +9563,7 @@
         <v>5.2827380952380001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -9374,7 +9634,7 @@
         <v>1.5069444444444399E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -9445,7 +9705,7 @@
         <v>2.5386904761904701E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -9516,7 +9776,7 @@
         <v>0.23621917517006799</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -9587,7 +9847,7 @@
         <v>1.16071428571428E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>10</v>
       </c>
@@ -9658,7 +9918,7 @@
         <v>1.3246552946504399E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -9729,7 +9989,7 @@
         <v>1.7065179461456199E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -9800,7 +10060,7 @@
         <v>6.4892768904258394E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>13</v>
       </c>
@@ -9871,7 +10131,7 @@
         <v>5.2827380952380001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -9942,7 +10202,7 @@
         <v>8.8943452380951995E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>15</v>
       </c>
@@ -10013,7 +10273,7 @@
         <v>1.0353121456916E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -10084,7 +10344,7 @@
         <v>1.6807707783327699E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>17</v>
       </c>
@@ -10155,7 +10415,7 @@
         <v>1.16071428571428E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>18</v>
       </c>
@@ -10226,7 +10486,7 @@
         <v>3.4821428571428503E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>19</v>
       </c>
@@ -10297,7 +10557,7 @@
         <v>5.2678571428571401E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
@@ -10368,7 +10628,7 @@
         <v>0.39464285714285702</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
@@ -10439,7 +10699,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>1</v>
       </c>
@@ -10510,7 +10770,7 @@
         <v>8.0357142857141999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
@@ -10581,7 +10841,7 @@
         <v>4.6428571428570996E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -10652,7 +10912,7 @@
         <v>5.2678571428571002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>4</v>
       </c>
@@ -10723,7 +10983,7 @@
         <v>4.3392857142857E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -10794,7 +11054,7 @@
         <v>2.7281746031746E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -10865,7 +11125,7 @@
         <v>1.09126984126984E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -10936,7 +11196,7 @@
         <v>2.3338293650793599E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>8</v>
       </c>
@@ -11007,7 +11267,7 @@
         <v>0.20278592687074801</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -11078,7 +11338,7 @@
         <v>8.0357142857141999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>10</v>
       </c>
@@ -11149,7 +11409,7 @@
         <v>8.6546342754011008E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>11</v>
       </c>
@@ -11220,7 +11480,7 @@
         <v>1.29650846505814E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>12</v>
       </c>
@@ -11291,7 +11551,7 @@
         <v>5.4719090302769002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>13</v>
       </c>
@@ -11362,7 +11622,7 @@
         <v>2.7281746031746E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>14</v>
       </c>
@@ -11433,7 +11693,7 @@
         <v>5.5193452380952E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>15</v>
       </c>
@@ -11504,7 +11764,7 @@
         <v>7.1169512944065996E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
@@ -11575,7 +11835,7 @@
         <v>1.30358135127364E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
@@ -11646,7 +11906,7 @@
         <v>8.0357142857141999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>18</v>
       </c>
@@ -11717,7 +11977,7 @@
         <v>2.2321428571428499E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>19</v>
       </c>
@@ -11788,7 +12048,7 @@
         <v>4.6428571428571402E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>20</v>
       </c>
@@ -11859,7 +12119,7 @@
         <v>0.35089285714285701</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>0</v>
       </c>
@@ -11930,7 +12190,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -12001,7 +12261,7 @@
         <v>8.928571428571E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -12072,7 +12332,7 @@
         <v>3.5714285714280001E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -12143,7 +12403,7 @@
         <v>1.785714285714E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>4</v>
       </c>
@@ -12214,7 +12474,7 @@
         <v>3.5714285714285697E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
@@ -12285,7 +12545,7 @@
         <v>2.232142857142E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -12356,7 +12616,7 @@
         <v>3.7202380952380002E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -12427,7 +12687,7 @@
         <v>3.7202380952380002E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>8</v>
       </c>
@@ -12498,7 +12758,7 @@
         <v>1.4136904761904E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
@@ -12569,7 +12829,7 @@
         <v>8.928571428571E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -12640,7 +12900,7 @@
         <v>5.396127810059E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -12711,7 +12971,7 @@
         <v>5.1901867515270002E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -12782,7 +13042,7 @@
         <v>8.1282166684969995E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>13</v>
       </c>
@@ -12853,7 +13113,7 @@
         <v>2.232142857142E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>14</v>
       </c>
@@ -12924,7 +13184,7 @@
         <v>2.97619047619E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>15</v>
       </c>
@@ -12995,7 +13255,7 @@
         <v>2.97619047619E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
@@ -13066,7 +13326,7 @@
         <v>3.6695075757569998E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>17</v>
       </c>
@@ -13137,7 +13397,7 @@
         <v>8.928571428571E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
@@ -13208,7 +13468,7 @@
         <v>1.7857142857142E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>19</v>
       </c>
@@ -13279,7 +13539,7 @@
         <v>1.7857142857142E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>20</v>
       </c>
@@ -13360,24 +13620,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C04FC8-98B4-4D21-B973-8DC25D99D0AA}">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="35" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="46" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="35" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="46" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="57" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="68" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="2"/>
+    <col min="58" max="68" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -13448,7 +13708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>153</v>
       </c>
@@ -13487,7 +13747,7 @@
       </c>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
@@ -13526,7 +13786,7 @@
       </c>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <f>B3-B2</f>
         <v>6.3392857142856807E-2</v>
@@ -13573,7 +13833,7 @@
       </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>157</v>
       </c>
@@ -13612,7 +13872,7 @@
       </c>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>158</v>
       </c>
@@ -13651,7 +13911,7 @@
       </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <f>B6-B5</f>
         <v>0.13660714285714251</v>
@@ -13698,7 +13958,7 @@
       </c>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>159</v>
       </c>
@@ -13737,7 +13997,7 @@
       </c>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>158</v>
       </c>
@@ -13776,7 +14036,7 @@
       </c>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <f>B9-B8</f>
         <v>0</v>
@@ -13823,7 +14083,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>156</v>
       </c>
@@ -13862,7 +14122,7 @@
       </c>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -13901,7 +14161,7 @@
       </c>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <f>B12-B11</f>
         <v>1.7857142857142898E-2</v>
@@ -13948,7 +14208,7 @@
       </c>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>155</v>
       </c>
@@ -13987,7 +14247,7 @@
       </c>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -14026,7 +14286,7 @@
       </c>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <f>B15-B14</f>
         <v>1.7857142857143002E-3</v>
@@ -14073,7 +14333,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
@@ -14112,7 +14372,7 @@
       </c>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>158</v>
       </c>
@@ -14151,7 +14411,7 @@
       </c>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <f>B18-B17</f>
         <v>0</v>
@@ -14198,7 +14458,7 @@
       </c>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>161</v>
       </c>
@@ -14237,7 +14497,7 @@
       </c>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>158</v>
       </c>
@@ -14276,7 +14536,7 @@
       </c>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f>B21-B20</f>
         <v>0.10073129060369496</v>
@@ -14323,7 +14583,7 @@
       </c>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -14337,7 +14597,7 @@
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>160</v>
       </c>
@@ -14376,7 +14636,7 @@
       </c>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>153</v>
       </c>
@@ -14415,7 +14675,7 @@
       </c>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>158</v>
       </c>
@@ -14454,7 +14714,7 @@
       </c>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <f>B26-B25</f>
         <v>4.3932764842356198E-2</v>
@@ -14501,7 +14761,7 @@
       </c>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>157</v>
       </c>
@@ -14540,7 +14800,7 @@
       </c>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>158</v>
       </c>
@@ -14579,7 +14839,7 @@
       </c>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <f>B29-B28</f>
         <v>0.1377644747089006</v>
@@ -14626,7 +14886,7 @@
       </c>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>159</v>
       </c>
@@ -14665,7 +14925,7 @@
       </c>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>158</v>
       </c>
@@ -14704,7 +14964,7 @@
       </c>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <f>B32-B31</f>
         <v>2.7644643871889973E-3</v>
@@ -14751,7 +15011,7 @@
       </c>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>156</v>
       </c>
@@ -14790,7 +15050,7 @@
       </c>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>158</v>
       </c>
@@ -14829,7 +15089,7 @@
       </c>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <f>B35-B34</f>
         <v>2.2939855568167199E-2</v>
@@ -14876,7 +15136,7 @@
       </c>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>155</v>
       </c>
@@ -14915,7 +15175,7 @@
       </c>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>158</v>
       </c>
@@ -14954,7 +15214,7 @@
       </c>
       <c r="M38"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <f>B38-B37</f>
         <v>-2.4678051225510995E-3</v>
@@ -15001,7 +15261,7 @@
       </c>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>154</v>
       </c>
@@ -15040,7 +15300,7 @@
       </c>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>158</v>
       </c>
@@ -15078,7 +15338,7 @@
         <v>5.396127810059E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <f>B41-B40</f>
         <v>1.304181695024E-4</v>
@@ -15124,79 +15384,79 @@
         <v>-5.7755516347800001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>0.51946308724832202</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>0.45234899328859002</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>0.440268456375838</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>0.39463087248322098</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>0.35302013422818701</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>0.28187919463087202</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>0.27919463087248297</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>0.169127516778523</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <v>0.12483221476509999</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="2">
         <v>8.1879194630872398E-2</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="2">
         <v>1.47651006711409E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>0.59659542241813202</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>0.52472763506901599</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>0.50016729758124601</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>0.44829776380872099</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>0.411318255882969</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>0.31277492632279902</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>0.32053914020678798</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>0.19782202315321001</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>0.13911546484374601</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>9.4979970678124706E-2</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <v>2.39829381134074E-2</v>
       </c>
       <c r="N44"/>
@@ -15211,54 +15471,54 @@
       <c r="W44"/>
       <c r="X44"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
         <f>B44-B43</f>
         <v>7.7132335169809996E-2</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <f t="shared" ref="C45:L45" si="13">C44-C43</f>
         <v>7.2378641780425967E-2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <f t="shared" si="13"/>
         <v>5.9898841205408004E-2</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <f t="shared" si="13"/>
         <v>5.366689132550001E-2</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <f t="shared" si="13"/>
         <v>5.8298121654781987E-2</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <f t="shared" si="13"/>
         <v>3.0895731691926998E-2</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <f t="shared" si="13"/>
         <v>4.1344509334305002E-2</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f t="shared" si="13"/>
         <v>2.8694506374687012E-2</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <f t="shared" si="13"/>
         <v>1.4283250078646018E-2</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="2">
         <f t="shared" si="13"/>
         <v>1.3100776047252308E-2</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="2">
         <f t="shared" si="13"/>
         <v>9.2178374422665008E-3</v>
       </c>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -15272,7 +15532,7 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -15286,7 +15546,7 @@
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -15311,7 +15571,7 @@
       <c r="W49"/>
       <c r="X49"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -15325,7 +15585,7 @@
       <c r="L50"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -15339,7 +15599,7 @@
       <c r="L51"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -15353,7 +15613,7 @@
       <c r="L52"/>
       <c r="M52"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -15378,7 +15638,7 @@
       <c r="W54"/>
       <c r="X54"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -15392,7 +15652,7 @@
       <c r="L55"/>
       <c r="M55"/>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -15406,7 +15666,7 @@
       <c r="L56"/>
       <c r="M56"/>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -15420,7 +15680,7 @@
       <c r="L57"/>
       <c r="M57"/>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -15445,7 +15705,7 @@
       <c r="W59"/>
       <c r="X59"/>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -15459,7 +15719,7 @@
       <c r="L60"/>
       <c r="M60"/>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -15473,7 +15733,7 @@
       <c r="L61"/>
       <c r="M61"/>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -15487,7 +15747,7 @@
       <c r="L62"/>
       <c r="M62"/>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -15512,7 +15772,7 @@
       <c r="W64"/>
       <c r="X64"/>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -15526,7 +15786,7 @@
       <c r="L65"/>
       <c r="M65"/>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -15540,7 +15800,7 @@
       <c r="L66"/>
       <c r="M66"/>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -15554,7 +15814,7 @@
       <c r="L67"/>
       <c r="M67"/>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -15579,7 +15839,7 @@
       <c r="W69"/>
       <c r="X69"/>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -15593,7 +15853,7 @@
       <c r="L70"/>
       <c r="M70"/>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -15607,7 +15867,7 @@
       <c r="L71"/>
       <c r="M71"/>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>

--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/SemEval-14/Laptop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3D2CB4-87F8-4E40-BB23-490A799A6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115EAB4-C552-403B-9986-08DB6FEDAC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33560" windowHeight="21580" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="163">
   <si>
     <t>metric</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>cat</t>
+  </si>
+  <si>
+    <t>bert-e2e-absa</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$43</c:f>
+              <c:f>Sheet2!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1969,7 +1972,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$43</c:f>
+              <c:f>Sheet2!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2046,7 +2049,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$45:$L$45</c:f>
+              <c:f>Sheet2!$B$48:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2098,7 +2101,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$31</c:f>
+              <c:f>Sheet2!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2175,7 +2178,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$33:$L$33</c:f>
+              <c:f>Sheet2!$B$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2304,7 +2307,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:f>Sheet2!$B$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2433,7 +2436,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$30:$L$30</c:f>
+              <c:f>Sheet2!$B$33:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2560,7 +2563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$36:$L$36</c:f>
+              <c:f>Sheet2!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2689,7 +2692,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
+              <c:f>Sheet2!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2816,7 +2819,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$42:$L$42</c:f>
+              <c:f>Sheet2!$B$45:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4282,7 +4285,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>39445</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>189380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4318,7 +4321,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>700591</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>188259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4652,19 +4655,19 @@
       <selection sqref="A1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="34" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="45" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="34" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="45" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="56" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="67" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.1640625" style="2"/>
+    <col min="57" max="67" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>4.2857142857142802E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>2.8035714285714199E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>1.8839285714285701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -5019,7 +5022,7 @@
         <v>8.1250000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>1.8797831632653E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>6.3169642857142799E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -5232,7 +5235,7 @@
         <v>8.7919146825396796E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>0.38952168367346901</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>4.2857142857142802E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>5.2803898147596E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>6.1753836248871999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>0.131396201278251</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>1.8797831632653E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>3.95252858087679E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>4.2886284722222202E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>5.3634844185665401E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>4.2857142857142802E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>0.113392857142857</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>0.159821428571428</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>0.59464285714285703</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>3.1607142857142799E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -6439,7 +6442,7 @@
         <v>2.2589285714285701E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>8.2767857142857001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>2.8594458616779998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>7.9501133786848005E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>0.112272534013605</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>0.397300524376417</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -6865,7 +6868,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>6.6452587552650294E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>7.7994113108391397E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>0.144348024747635</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>2.8594458616779998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>4.9973072562358202E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -7291,7 +7294,7 @@
         <v>5.4871031746031702E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>6.5575751899905999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
@@ -7504,7 +7507,7 @@
         <v>0.13571428571428501</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -7575,7 +7578,7 @@
         <v>0.188392857142857</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
@@ -7646,7 +7649,7 @@
         <v>0.58035714285714202</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>4.1071428571428502E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>2.7857142857142799E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>2.1250000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -8001,7 +8004,7 @@
         <v>8.4285714285713999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -8072,7 +8075,7 @@
         <v>2.1083120748299301E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>6.5105938208616695E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -8214,7 +8217,7 @@
         <v>9.90415958049886E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
@@ -8285,7 +8288,7 @@
         <v>0.40892325680272101</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>4.1071428571428502E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -8427,7 +8430,7 @@
         <v>5.3543618311818399E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
@@ -8498,7 +8501,7 @@
         <v>6.6361773485632006E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>0.139190906197453</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>2.1083120748299301E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
@@ -8711,7 +8714,7 @@
         <v>4.0794713718820798E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>15</v>
       </c>
@@ -8782,7 +8785,7 @@
         <v>4.6030624055177598E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
@@ -8853,7 +8856,7 @@
         <v>5.8063758856060001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>4.1071428571428502E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -8995,7 +8998,7 @@
         <v>0.108035714285714</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>19</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>0.16696428571428501</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>20</v>
       </c>
@@ -9137,7 +9140,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
@@ -9208,7 +9211,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>1.16071428571428E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -9421,7 +9424,7 @@
         <v>5.8928571428570999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>4</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>5.1071428571427997E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -9563,7 +9566,7 @@
         <v>5.2827380952380001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -9634,7 +9637,7 @@
         <v>1.5069444444444399E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -9705,7 +9708,7 @@
         <v>2.5386904761904701E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>0.23621917517006799</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -9847,7 +9850,7 @@
         <v>1.16071428571428E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>10</v>
       </c>
@@ -9918,7 +9921,7 @@
         <v>1.3246552946504399E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -9989,7 +9992,7 @@
         <v>1.7065179461456199E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>6.4892768904258394E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>13</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>5.2827380952380001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -10202,7 +10205,7 @@
         <v>8.8943452380951995E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>15</v>
       </c>
@@ -10273,7 +10276,7 @@
         <v>1.0353121456916E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>1.6807707783327699E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>17</v>
       </c>
@@ -10415,7 +10418,7 @@
         <v>1.16071428571428E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>18</v>
       </c>
@@ -10486,7 +10489,7 @@
         <v>3.4821428571428503E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>19</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>5.2678571428571401E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>0.39464285714285702</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
@@ -10699,7 +10702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>1</v>
       </c>
@@ -10770,7 +10773,7 @@
         <v>8.0357142857141999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
@@ -10841,7 +10844,7 @@
         <v>4.6428571428570996E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -10912,7 +10915,7 @@
         <v>5.2678571428571002E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>4</v>
       </c>
@@ -10983,7 +10986,7 @@
         <v>4.3392857142857E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -11054,7 +11057,7 @@
         <v>2.7281746031746E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -11125,7 +11128,7 @@
         <v>1.09126984126984E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -11196,7 +11199,7 @@
         <v>2.3338293650793599E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>8</v>
       </c>
@@ -11267,7 +11270,7 @@
         <v>0.20278592687074801</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -11338,7 +11341,7 @@
         <v>8.0357142857141999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>10</v>
       </c>
@@ -11409,7 +11412,7 @@
         <v>8.6546342754011008E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>11</v>
       </c>
@@ -11480,7 +11483,7 @@
         <v>1.29650846505814E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>12</v>
       </c>
@@ -11551,7 +11554,7 @@
         <v>5.4719090302769002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>13</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>2.7281746031746E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>14</v>
       </c>
@@ -11693,7 +11696,7 @@
         <v>5.5193452380952E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>15</v>
       </c>
@@ -11764,7 +11767,7 @@
         <v>7.1169512944065996E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>1.30358135127364E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
@@ -11906,7 +11909,7 @@
         <v>8.0357142857141999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>18</v>
       </c>
@@ -11977,7 +11980,7 @@
         <v>2.2321428571428499E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>19</v>
       </c>
@@ -12048,7 +12051,7 @@
         <v>4.6428571428571402E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>20</v>
       </c>
@@ -12119,7 +12122,7 @@
         <v>0.35089285714285701</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>0</v>
       </c>
@@ -12190,7 +12193,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -12261,7 +12264,7 @@
         <v>8.928571428571E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -12332,7 +12335,7 @@
         <v>3.5714285714280001E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -12403,7 +12406,7 @@
         <v>1.785714285714E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>4</v>
       </c>
@@ -12474,7 +12477,7 @@
         <v>3.5714285714285697E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
@@ -12545,7 +12548,7 @@
         <v>2.232142857142E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -12616,7 +12619,7 @@
         <v>3.7202380952380002E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -12687,7 +12690,7 @@
         <v>3.7202380952380002E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>8</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>1.4136904761904E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
@@ -12829,7 +12832,7 @@
         <v>8.928571428571E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -12900,7 +12903,7 @@
         <v>5.396127810059E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -12971,7 +12974,7 @@
         <v>5.1901867515270002E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -13042,7 +13045,7 @@
         <v>8.1282166684969995E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>13</v>
       </c>
@@ -13113,7 +13116,7 @@
         <v>2.232142857142E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>14</v>
       </c>
@@ -13184,7 +13187,7 @@
         <v>2.97619047619E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>15</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>2.97619047619E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
@@ -13326,7 +13329,7 @@
         <v>3.6695075757569998E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>17</v>
       </c>
@@ -13397,7 +13400,7 @@
         <v>8.928571428571E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
@@ -13468,7 +13471,7 @@
         <v>1.7857142857142E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>19</v>
       </c>
@@ -13539,7 +13542,7 @@
         <v>1.7857142857142E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>20</v>
       </c>
@@ -13618,26 +13621,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C04FC8-98B4-4D21-B973-8DC25D99D0AA}">
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="35" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="46" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="35" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="46" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="57" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="68" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.1640625" style="2"/>
+    <col min="58" max="68" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -13708,7 +13711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>153</v>
       </c>
@@ -13747,7 +13750,7 @@
       </c>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
@@ -13786,7 +13789,7 @@
       </c>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>B3-B2</f>
         <v>6.3392857142856807E-2</v>
@@ -13833,7 +13836,7 @@
       </c>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>157</v>
       </c>
@@ -13872,7 +13875,7 @@
       </c>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>158</v>
       </c>
@@ -13911,7 +13914,7 @@
       </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f>B6-B5</f>
         <v>0.13660714285714251</v>
@@ -13958,7 +13961,7 @@
       </c>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>159</v>
       </c>
@@ -13997,7 +14000,7 @@
       </c>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>158</v>
       </c>
@@ -14036,7 +14039,7 @@
       </c>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f>B9-B8</f>
         <v>0</v>
@@ -14083,7 +14086,7 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>156</v>
       </c>
@@ -14122,7 +14125,7 @@
       </c>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -14161,7 +14164,7 @@
       </c>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f>B12-B11</f>
         <v>1.7857142857142898E-2</v>
@@ -14208,7 +14211,7 @@
       </c>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>155</v>
       </c>
@@ -14247,7 +14250,7 @@
       </c>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
@@ -14286,7 +14289,7 @@
       </c>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f>B15-B14</f>
         <v>1.7857142857143002E-3</v>
@@ -14333,7 +14336,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
@@ -14372,7 +14375,7 @@
       </c>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>158</v>
       </c>
@@ -14411,7 +14414,7 @@
       </c>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f>B18-B17</f>
         <v>0</v>
@@ -14458,7 +14461,7 @@
       </c>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>161</v>
       </c>
@@ -14497,7 +14500,7 @@
       </c>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>158</v>
       </c>
@@ -14536,7 +14539,7 @@
       </c>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f>B21-B20</f>
         <v>0.10073129060369496</v>
@@ -14583,1023 +14586,1191 @@
       </c>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23">
+        <v>0.619354838709677</v>
+      </c>
+      <c r="C23">
+        <v>0.550230414746543</v>
+      </c>
+      <c r="D23">
+        <v>0.47373271889400898</v>
+      </c>
+      <c r="E23">
+        <v>0.45161290322580599</v>
+      </c>
+      <c r="F23">
+        <v>0.371428571428571</v>
+      </c>
+      <c r="G23">
+        <v>0.31612903225806399</v>
+      </c>
+      <c r="H23">
+        <v>0.23686635944700399</v>
+      </c>
+      <c r="I23">
+        <v>0.18525345622119799</v>
+      </c>
+      <c r="J23">
+        <v>0.121658986175115</v>
+      </c>
+      <c r="K23">
+        <v>5.4377880184331803E-2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24">
+        <v>0.60276497695852504</v>
+      </c>
+      <c r="C24">
+        <v>0.54562211981566799</v>
+      </c>
+      <c r="D24">
+        <v>0.48202764976958501</v>
+      </c>
+      <c r="E24">
+        <v>0.42304147465437703</v>
+      </c>
+      <c r="F24">
+        <v>0.35299539170506899</v>
+      </c>
+      <c r="G24">
+        <v>0.30783410138248801</v>
+      </c>
+      <c r="H24">
+        <v>0.24147465437787999</v>
+      </c>
+      <c r="I24">
+        <v>0.18156682027649701</v>
+      </c>
+      <c r="J24">
+        <v>0.130875576036866</v>
+      </c>
+      <c r="K24">
+        <v>5.6221198156682001E-2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f>B24-B23</f>
+        <v>-1.6589861751151957E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:L25" si="7">C24-C23</f>
+        <v>-4.608294930875001E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="7"/>
+        <v>8.2949308755760343E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="7"/>
+        <v>-2.857142857142897E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
+        <v>-1.8433179723502002E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
+        <v>-8.2949308755759787E-3</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="7"/>
+        <v>4.6082949308760002E-3</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="7"/>
+        <v>-3.6866359447009778E-3</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="7"/>
+        <v>9.2165898617510011E-3</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="7"/>
+        <v>1.8433179723501975E-3</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B24">
+      <c r="B27">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>0.1</v>
       </c>
-      <c r="D24">
+      <c r="D27">
         <v>0.2</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>0.3</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>0.4</v>
       </c>
-      <c r="G24">
+      <c r="G27">
         <v>0.5</v>
       </c>
-      <c r="H24">
+      <c r="H27">
         <v>0.6</v>
       </c>
-      <c r="I24">
+      <c r="I27">
         <v>0.7</v>
       </c>
-      <c r="J24">
+      <c r="J27">
         <v>0.8</v>
       </c>
-      <c r="K24">
+      <c r="K27">
         <v>0.9</v>
       </c>
-      <c r="L24">
+      <c r="L27">
         <v>1</v>
       </c>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B28" s="2">
         <v>9.0766435605531798E-2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C28" s="2">
         <v>8.7018230859500806E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D28" s="2">
         <v>8.1525013409947E-2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E28" s="2">
         <v>7.8255389940916006E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F28" s="2">
         <v>7.2170265017906604E-2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G28" s="2">
         <v>6.6554601145013298E-2</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H28" s="2">
         <v>6.3514250918905904E-2</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I28" s="2">
         <v>5.8801450242434099E-2</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J28" s="2">
         <v>5.1685323059304199E-2</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K28" s="2">
         <v>4.8653062067683002E-2</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L28" s="2">
         <v>4.5792985982288897E-2</v>
       </c>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.134699200447888</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.124327386549447</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.11686497031543</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.1071389721275</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.100733615931531</v>
-      </c>
-      <c r="G26" s="2">
-        <v>9.1931554608302601E-2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>8.2755581611159298E-2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>7.5113876867294302E-2</v>
-      </c>
-      <c r="J26" s="2">
-        <v>6.7729374168087095E-2</v>
-      </c>
-      <c r="K26" s="2">
-        <v>6.1746164259453999E-2</v>
-      </c>
-      <c r="L26" s="2">
-        <v>5.2803898147596E-2</v>
-      </c>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
-        <f>B26-B25</f>
-        <v>4.3932764842356198E-2</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" ref="C27:L27" si="7">C26-C25</f>
-        <v>3.7309155689946194E-2</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="7"/>
-        <v>3.5339956905483E-2</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="7"/>
-        <v>2.8883582186583989E-2</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="7"/>
-        <v>2.85633509136244E-2</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="7"/>
-        <v>2.5376953463289303E-2</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="7"/>
-        <v>1.9241330692253394E-2</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="7"/>
-        <v>1.6312426624860203E-2</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="7"/>
-        <v>1.6044051108782896E-2</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="7"/>
-        <v>1.3093102191770997E-2</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="7"/>
-        <v>7.0109121653071024E-3</v>
-      </c>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3.79477801647864E-2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>3.7677124334865898E-2</v>
-      </c>
-      <c r="D28" s="2">
-        <v>3.2658805289213201E-2</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2.8479162493604E-2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3.3310180423950099E-2</v>
-      </c>
-      <c r="G28" s="2">
-        <v>2.4570352650016902E-2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2.1186449668991799E-2</v>
-      </c>
-      <c r="I28" s="2">
-        <v>2.39496086688584E-2</v>
-      </c>
-      <c r="J28" s="2">
-        <v>2.0780655633942598E-2</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1.8680604336581998E-2</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1.6340516674615901E-2</v>
-      </c>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B29" s="2">
-        <v>0.175712254873687</v>
+        <v>0.134699200447888</v>
       </c>
       <c r="C29" s="2">
-        <v>0.16350742419238001</v>
+        <v>0.124327386549447</v>
       </c>
       <c r="D29" s="2">
-        <v>0.149274827692294</v>
+        <v>0.11686497031543</v>
       </c>
       <c r="E29" s="2">
-        <v>0.142922178628964</v>
+        <v>0.1071389721275</v>
       </c>
       <c r="F29" s="2">
-        <v>0.12994801213624901</v>
+        <v>0.100733615931531</v>
       </c>
       <c r="G29" s="2">
-        <v>0.11718597248715901</v>
+        <v>9.1931554608302601E-2</v>
       </c>
       <c r="H29" s="2">
-        <v>0.107579334539013</v>
+        <v>8.2755581611159298E-2</v>
       </c>
       <c r="I29" s="2">
-        <v>0.101642515623019</v>
+        <v>7.5113876867294302E-2</v>
       </c>
       <c r="J29" s="2">
-        <v>9.2205469463571998E-2</v>
+        <v>6.7729374168087095E-2</v>
       </c>
       <c r="K29" s="2">
-        <v>7.8037212625486893E-2</v>
+        <v>6.1746164259453999E-2</v>
       </c>
       <c r="L29" s="2">
-        <v>6.6452587552650294E-2</v>
+        <v>5.2803898147596E-2</v>
       </c>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f>B29-B28</f>
-        <v>0.1377644747089006</v>
+        <v>4.3932764842356198E-2</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ref="C30:L30" si="8">C29-C28</f>
-        <v>0.12583029985751412</v>
+        <v>3.7309155689946194E-2</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="8"/>
-        <v>0.1166160224030808</v>
+        <v>3.5339956905483E-2</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="8"/>
-        <v>0.11444301613536001</v>
+        <v>2.8883582186583989E-2</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="8"/>
-        <v>9.6637831712298922E-2</v>
+        <v>2.85633509136244E-2</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="8"/>
-        <v>9.2615619837142102E-2</v>
+        <v>2.5376953463289303E-2</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="8"/>
-        <v>8.6392884870021197E-2</v>
+        <v>1.9241330692253394E-2</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="8"/>
-        <v>7.7692906954160604E-2</v>
+        <v>1.6312426624860203E-2</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="8"/>
-        <v>7.1424813829629397E-2</v>
+        <v>1.6044051108782896E-2</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="8"/>
-        <v>5.9356608288904891E-2</v>
+        <v>1.3093102191770997E-2</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="8"/>
-        <v>5.011207087803439E-2</v>
+        <v>7.0109121653071024E-3</v>
       </c>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B31" s="2">
-        <v>0.13078640618345799</v>
+        <v>3.79477801647864E-2</v>
       </c>
       <c r="C31" s="2">
-        <v>0.12116157776618799</v>
+        <v>3.7677124334865898E-2</v>
       </c>
       <c r="D31" s="2">
-        <v>0.11766568673540199</v>
+        <v>3.2658805289213201E-2</v>
       </c>
       <c r="E31" s="2">
-        <v>0.10933827413554</v>
+        <v>2.8479162493604E-2</v>
       </c>
       <c r="F31" s="2">
-        <v>9.52864493491761E-2</v>
+        <v>3.3310180423950099E-2</v>
       </c>
       <c r="G31" s="2">
-        <v>8.69895682986674E-2</v>
+        <v>2.4570352650016902E-2</v>
       </c>
       <c r="H31" s="2">
-        <v>8.9688828823302105E-2</v>
+        <v>2.1186449668991799E-2</v>
       </c>
       <c r="I31" s="2">
-        <v>7.5767231217606798E-2</v>
+        <v>2.39496086688584E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>6.7454288494412706E-2</v>
+        <v>2.0780655633942598E-2</v>
       </c>
       <c r="K31" s="2">
-        <v>6.2199852008378402E-2</v>
+        <v>1.8680604336581998E-2</v>
       </c>
       <c r="L31" s="2">
-        <v>5.1603826878811702E-2</v>
+        <v>1.6340516674615901E-2</v>
       </c>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="2">
-        <v>0.13355087057064699</v>
+        <v>0.175712254873687</v>
       </c>
       <c r="C32" s="2">
-        <v>0.12678910914577399</v>
+        <v>0.16350742419238001</v>
       </c>
       <c r="D32" s="2">
-        <v>0.118638526159215</v>
+        <v>0.149274827692294</v>
       </c>
       <c r="E32" s="2">
-        <v>0.110046530676773</v>
+        <v>0.142922178628964</v>
       </c>
       <c r="F32" s="2">
-        <v>0.101593236932199</v>
+        <v>0.12994801213624901</v>
       </c>
       <c r="G32" s="2">
-        <v>9.2824227374714199E-2</v>
+        <v>0.11718597248715901</v>
       </c>
       <c r="H32" s="2">
-        <v>8.2491669219013103E-2</v>
+        <v>0.107579334539013</v>
       </c>
       <c r="I32" s="2">
-        <v>8.0042805805704595E-2</v>
+        <v>0.101642515623019</v>
       </c>
       <c r="J32" s="2">
-        <v>7.0249061572817795E-2</v>
+        <v>9.2205469463571998E-2</v>
       </c>
       <c r="K32" s="2">
-        <v>5.88792961447938E-2</v>
+        <v>7.8037212625486893E-2</v>
       </c>
       <c r="L32" s="2">
-        <v>5.3543618311818399E-2</v>
+        <v>6.6452587552650294E-2</v>
       </c>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f>B32-B31</f>
-        <v>2.7644643871889973E-3</v>
+        <v>0.1377644747089006</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ref="C33:L33" si="9">C32-C31</f>
-        <v>5.6275313795859927E-3</v>
+        <v>0.12583029985751412</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="9"/>
-        <v>9.728394238130017E-4</v>
+        <v>0.1166160224030808</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="9"/>
-        <v>7.0825654123300719E-4</v>
+        <v>0.11444301613536001</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="9"/>
-        <v>6.306787583022902E-3</v>
+        <v>9.6637831712298922E-2</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="9"/>
-        <v>5.8346590760467998E-3</v>
+        <v>9.2615619837142102E-2</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="9"/>
-        <v>-7.1971596042890024E-3</v>
+        <v>8.6392884870021197E-2</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="9"/>
-        <v>4.2755745880977969E-3</v>
+        <v>7.7692906954160604E-2</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="9"/>
-        <v>2.7947730784050884E-3</v>
+        <v>7.1424813829629397E-2</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="9"/>
-        <v>-3.3205558635846025E-3</v>
+        <v>5.9356608288904891E-2</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="9"/>
-        <v>1.9397914330066962E-3</v>
+        <v>5.011207087803439E-2</v>
       </c>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B34" s="2">
-        <v>7.7041559217059996E-3</v>
+        <v>0.13078640618345799</v>
       </c>
       <c r="C34" s="2">
-        <v>7.1661738426331998E-3</v>
+        <v>0.12116157776618799</v>
       </c>
       <c r="D34" s="2">
-        <v>3.5035698881116001E-3</v>
+        <v>0.11766568673540199</v>
       </c>
       <c r="E34" s="2">
-        <v>7.9663482509921002E-3</v>
+        <v>0.10933827413554</v>
       </c>
       <c r="F34" s="2">
-        <v>8.3125652208404996E-3</v>
+        <v>9.52864493491761E-2</v>
       </c>
       <c r="G34" s="2">
-        <v>6.6626701151995E-3</v>
+        <v>8.69895682986674E-2</v>
       </c>
       <c r="H34" s="2">
-        <v>5.5281054132367002E-3</v>
+        <v>8.9688828823302105E-2</v>
       </c>
       <c r="I34" s="2">
-        <v>6.9840253608802003E-3</v>
+        <v>7.5767231217606798E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>5.3573183159474E-3</v>
+        <v>6.7454288494412706E-2</v>
       </c>
       <c r="K34" s="2">
-        <v>4.7950740670770998E-3</v>
+        <v>6.2199852008378402E-2</v>
       </c>
       <c r="L34" s="2">
-        <v>5.1543158221290996E-3</v>
+        <v>5.1603826878811702E-2</v>
       </c>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B35" s="2">
-        <v>3.06440114898732E-2</v>
+        <v>0.13355087057064699</v>
       </c>
       <c r="C35" s="2">
-        <v>2.5653145485653402E-2</v>
+        <v>0.12678910914577399</v>
       </c>
       <c r="D35" s="2">
-        <v>3.04407828255308E-2</v>
+        <v>0.118638526159215</v>
       </c>
       <c r="E35" s="2">
-        <v>2.5928309374792999E-2</v>
+        <v>0.110046530676773</v>
       </c>
       <c r="F35" s="2">
-        <v>2.4007389462640499E-2</v>
+        <v>0.101593236932199</v>
       </c>
       <c r="G35" s="2">
-        <v>2.6800199038663299E-2</v>
+        <v>9.2824227374714199E-2</v>
       </c>
       <c r="H35" s="2">
-        <v>2.3513078005508101E-2</v>
+        <v>8.2491669219013103E-2</v>
       </c>
       <c r="I35" s="2">
-        <v>2.23288170231828E-2</v>
+        <v>8.0042805805704595E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>1.92258371306736E-2</v>
+        <v>7.0249061572817795E-2</v>
       </c>
       <c r="K35" s="2">
-        <v>1.7100166674632801E-2</v>
+        <v>5.88792961447938E-2</v>
       </c>
       <c r="L35" s="2">
-        <v>1.3246552946504399E-2</v>
+        <v>5.3543618311818399E-2</v>
       </c>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f>B35-B34</f>
-        <v>2.2939855568167199E-2</v>
+        <v>2.7644643871889973E-3</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" ref="C36:L36" si="10">C35-C34</f>
-        <v>1.8486971643020201E-2</v>
+        <v>5.6275313795859927E-3</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="10"/>
-        <v>2.69372129374192E-2</v>
+        <v>9.728394238130017E-4</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="10"/>
-        <v>1.7961961123800899E-2</v>
+        <v>7.0825654123300719E-4</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="10"/>
-        <v>1.56948242418E-2</v>
+        <v>6.306787583022902E-3</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="10"/>
-        <v>2.01375289234638E-2</v>
+        <v>5.8346590760467998E-3</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="10"/>
-        <v>1.79849725922714E-2</v>
+        <v>-7.1971596042890024E-3</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="10"/>
-        <v>1.53447916623026E-2</v>
+        <v>4.2755745880977969E-3</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="10"/>
-        <v>1.38685188147262E-2</v>
+        <v>2.7947730784050884E-3</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="10"/>
-        <v>1.23050926075557E-2</v>
+        <v>-3.3205558635846025E-3</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="10"/>
-        <v>8.0922371243753004E-3</v>
+        <v>1.9397914330066962E-3</v>
       </c>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" s="2">
-        <v>1.55124917124469E-2</v>
+        <v>7.7041559217059996E-3</v>
       </c>
       <c r="C37" s="2">
-        <v>1.3332825064655799E-2</v>
+        <v>7.1661738426331998E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>9.1510315200439996E-3</v>
+        <v>3.5035698881116001E-3</v>
       </c>
       <c r="E37" s="2">
-        <v>1.0819848769609E-2</v>
+        <v>7.9663482509921002E-3</v>
       </c>
       <c r="F37" s="2">
-        <v>1.25850531643489E-2</v>
+        <v>8.3125652208404996E-3</v>
       </c>
       <c r="G37" s="2">
-        <v>1.1531721028210699E-2</v>
+        <v>6.6626701151995E-3</v>
       </c>
       <c r="H37" s="2">
-        <v>1.30245492213632E-2</v>
+        <v>5.5281054132367002E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>1.4883840623743899E-2</v>
+        <v>6.9840253608802003E-3</v>
       </c>
       <c r="J37" s="2">
-        <v>1.15663874081685E-2</v>
+        <v>5.3573183159474E-3</v>
       </c>
       <c r="K37" s="2">
-        <v>1.22870179652613E-2</v>
+        <v>4.7950740670770998E-3</v>
       </c>
       <c r="L37" s="2">
-        <v>9.8572338825922007E-3</v>
+        <v>5.1543158221290996E-3</v>
       </c>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B38" s="2">
-        <v>1.30446865898958E-2</v>
+        <v>3.06440114898732E-2</v>
       </c>
       <c r="C38" s="2">
-        <v>1.2805815387373E-2</v>
+        <v>2.5653145485653402E-2</v>
       </c>
       <c r="D38" s="2">
-        <v>1.3764129429328999E-2</v>
+        <v>3.04407828255308E-2</v>
       </c>
       <c r="E38" s="2">
-        <v>1.0659046686786199E-2</v>
+        <v>2.5928309374792999E-2</v>
       </c>
       <c r="F38" s="2">
-        <v>1.0631347837830899E-2</v>
+        <v>2.4007389462640499E-2</v>
       </c>
       <c r="G38" s="2">
-        <v>1.14091378430399E-2</v>
+        <v>2.6800199038663299E-2</v>
       </c>
       <c r="H38" s="2">
-        <v>9.3741635422001004E-3</v>
+        <v>2.3513078005508101E-2</v>
       </c>
       <c r="I38" s="2">
-        <v>8.1500740597845005E-3</v>
+        <v>2.23288170231828E-2</v>
       </c>
       <c r="J38" s="2">
-        <v>9.8423038875517007E-3</v>
+        <v>1.92258371306736E-2</v>
       </c>
       <c r="K38" s="2">
-        <v>6.6876549540825997E-3</v>
+        <v>1.7100166674632801E-2</v>
       </c>
       <c r="L38" s="2">
-        <v>8.6546342754011008E-3</v>
+        <v>1.3246552946504399E-2</v>
       </c>
       <c r="M38"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f>B38-B37</f>
-        <v>-2.4678051225510995E-3</v>
+        <v>2.2939855568167199E-2</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ref="C39:L39" si="11">C38-C37</f>
-        <v>-5.2700967728279945E-4</v>
+        <v>1.8486971643020201E-2</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="11"/>
-        <v>4.6130979092849998E-3</v>
+        <v>2.69372129374192E-2</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="11"/>
-        <v>-1.6080208282280052E-4</v>
+        <v>1.7961961123800899E-2</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="11"/>
-        <v>-1.9537053265180002E-3</v>
+        <v>1.56948242418E-2</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="11"/>
-        <v>-1.2258318517079959E-4</v>
+        <v>2.01375289234638E-2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="11"/>
-        <v>-3.6503856791630998E-3</v>
+        <v>1.79849725922714E-2</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="11"/>
-        <v>-6.7337665639593987E-3</v>
+        <v>1.53447916623026E-2</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="11"/>
-        <v>-1.7240835206167992E-3</v>
+        <v>1.38685188147262E-2</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="11"/>
-        <v>-5.5993630111787008E-3</v>
+        <v>1.23050926075557E-2</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="11"/>
-        <v>-1.2025996071910999E-3</v>
+        <v>8.0922371243753004E-3</v>
       </c>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B40" s="2">
-        <v>0</v>
+        <v>1.55124917124469E-2</v>
       </c>
       <c r="C40" s="2">
-        <v>2.0883380535027E-3</v>
+        <v>1.3332825064655799E-2</v>
       </c>
       <c r="D40" s="2">
-        <v>2.6435884907660001E-4</v>
+        <v>9.1510315200439996E-3</v>
       </c>
       <c r="E40" s="2">
-        <v>1.0288641288172999E-3</v>
+        <v>1.0819848769609E-2</v>
       </c>
       <c r="F40" s="2">
-        <v>7.9183286360219997E-4</v>
+        <v>1.25850531643489E-2</v>
       </c>
       <c r="G40" s="2">
-        <v>8.1181169976009997E-4</v>
+        <v>1.1531721028210699E-2</v>
       </c>
       <c r="H40" s="2">
-        <v>1.8306141209740001E-3</v>
+        <v>1.30245492213632E-2</v>
       </c>
       <c r="I40" s="2">
-        <v>7.1672794518929999E-4</v>
+        <v>1.4883840623743899E-2</v>
       </c>
       <c r="J40" s="2">
-        <v>7.3022735721680004E-4</v>
+        <v>1.15663874081685E-2</v>
       </c>
       <c r="K40" s="2">
-        <v>2.0699469626161999E-3</v>
+        <v>1.22870179652613E-2</v>
       </c>
       <c r="L40" s="2">
-        <v>1.1171679444839E-3</v>
+        <v>9.8572338825922007E-3</v>
       </c>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B41" s="2">
-        <v>1.304181695024E-4</v>
+        <v>1.30446865898958E-2</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>1.2805815387373E-2</v>
       </c>
       <c r="D41" s="2">
-        <v>3.4540429217359999E-4</v>
+        <v>1.3764129429328999E-2</v>
       </c>
       <c r="E41" s="2">
-        <v>0</v>
+        <v>1.0659046686786199E-2</v>
       </c>
       <c r="F41" s="2">
-        <v>2.1178367211540001E-4</v>
+        <v>1.0631347837830899E-2</v>
       </c>
       <c r="G41" s="2">
-        <v>3.1937913792578002E-3</v>
+        <v>1.14091378430399E-2</v>
       </c>
       <c r="H41" s="2">
-        <v>1.5111929153717001E-3</v>
+        <v>9.3741635422001004E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>8.1500740597845005E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>3.9477701857900001E-4</v>
+        <v>9.8423038875517007E-3</v>
       </c>
       <c r="K41" s="2">
-        <v>0</v>
+        <v>6.6876549540825997E-3</v>
       </c>
       <c r="L41" s="2">
-        <v>5.396127810059E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+        <v>8.6546342754011008E-3</v>
+      </c>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f>B41-B40</f>
-        <v>1.304181695024E-4</v>
+        <v>-2.4678051225510995E-3</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" ref="C42:L42" si="12">C41-C40</f>
-        <v>-2.0883380535027E-3</v>
+        <v>-5.2700967728279945E-4</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="12"/>
-        <v>8.1045443096999976E-5</v>
+        <v>4.6130979092849998E-3</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="12"/>
-        <v>-1.0288641288172999E-3</v>
+        <v>-1.6080208282280052E-4</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="12"/>
-        <v>-5.8004919148679996E-4</v>
+        <v>-1.9537053265180002E-3</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="12"/>
-        <v>2.3819796794977001E-3</v>
+        <v>-1.2258318517079959E-4</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="12"/>
-        <v>-3.1942120560230001E-4</v>
+        <v>-3.6503856791630998E-3</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="12"/>
-        <v>-7.1672794518929999E-4</v>
+        <v>-6.7337665639593987E-3</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="12"/>
-        <v>-3.3545033863780003E-4</v>
+        <v>-1.7240835206167992E-3</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="12"/>
-        <v>-2.0699469626161999E-3</v>
+        <v>-5.5993630111787008E-3</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="12"/>
-        <v>-5.7755516347800001E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-1.2025996071910999E-3</v>
+      </c>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B43" s="2">
-        <v>0.51946308724832202</v>
+        <v>0</v>
       </c>
       <c r="C43" s="2">
-        <v>0.45234899328859002</v>
+        <v>2.0883380535027E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.440268456375838</v>
+        <v>2.6435884907660001E-4</v>
       </c>
       <c r="E43" s="2">
-        <v>0.39463087248322098</v>
+        <v>1.0288641288172999E-3</v>
       </c>
       <c r="F43" s="2">
-        <v>0.35302013422818701</v>
+        <v>7.9183286360219997E-4</v>
       </c>
       <c r="G43" s="2">
-        <v>0.28187919463087202</v>
+        <v>8.1181169976009997E-4</v>
       </c>
       <c r="H43" s="2">
-        <v>0.27919463087248297</v>
+        <v>1.8306141209740001E-3</v>
       </c>
       <c r="I43" s="2">
-        <v>0.169127516778523</v>
+        <v>7.1672794518929999E-4</v>
       </c>
       <c r="J43" s="2">
-        <v>0.12483221476509999</v>
+        <v>7.3022735721680004E-4</v>
       </c>
       <c r="K43" s="2">
-        <v>8.1879194630872398E-2</v>
+        <v>2.0699469626161999E-3</v>
       </c>
       <c r="L43" s="2">
-        <v>1.47651006711409E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+        <v>1.1171679444839E-3</v>
+      </c>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B44" s="2">
-        <v>0.59659542241813202</v>
+        <v>1.304181695024E-4</v>
       </c>
       <c r="C44" s="2">
-        <v>0.52472763506901599</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
-        <v>0.50016729758124601</v>
+        <v>3.4540429217359999E-4</v>
       </c>
       <c r="E44" s="2">
-        <v>0.44829776380872099</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>0.411318255882969</v>
+        <v>2.1178367211540001E-4</v>
       </c>
       <c r="G44" s="2">
-        <v>0.31277492632279902</v>
+        <v>3.1937913792578002E-3</v>
       </c>
       <c r="H44" s="2">
-        <v>0.32053914020678798</v>
+        <v>1.5111929153717001E-3</v>
       </c>
       <c r="I44" s="2">
-        <v>0.19782202315321001</v>
+        <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>0.13911546484374601</v>
+        <v>3.9477701857900001E-4</v>
       </c>
       <c r="K44" s="2">
-        <v>9.4979970678124706E-2</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2">
-        <v>2.39829381134074E-2</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+        <v>5.396127810059E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f>B44-B43</f>
-        <v>7.7132335169809996E-2</v>
+        <v>1.304181695024E-4</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ref="C45:L45" si="13">C44-C43</f>
-        <v>7.2378641780425967E-2</v>
+        <v>-2.0883380535027E-3</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="13"/>
-        <v>5.9898841205408004E-2</v>
+        <v>8.1045443096999976E-5</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="13"/>
-        <v>5.366689132550001E-2</v>
+        <v>-1.0288641288172999E-3</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="13"/>
-        <v>5.8298121654781987E-2</v>
+        <v>-5.8004919148679996E-4</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="13"/>
-        <v>3.0895731691926998E-2</v>
+        <v>2.3819796794977001E-3</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="13"/>
-        <v>4.1344509334305002E-2</v>
+        <v>-3.1942120560230001E-4</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="13"/>
-        <v>2.8694506374687012E-2</v>
+        <v>-7.1672794518929999E-4</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="13"/>
-        <v>1.4283250078646018E-2</v>
+        <v>-3.3545033863780003E-4</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="13"/>
-        <v>1.3100776047252308E-2</v>
+        <v>-2.0699469626161999E-3</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="13"/>
+        <v>-5.7755516347800001E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.51946308724832202</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.45234899328859002</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.440268456375838</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.39463087248322098</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.35302013422818701</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.28187919463087202</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.27919463087248297</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.169127516778523</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.12483221476509999</v>
+      </c>
+      <c r="K46" s="2">
+        <v>8.1879194630872398E-2</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1.47651006711409E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.59659542241813202</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.52472763506901599</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.50016729758124601</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.44829776380872099</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.411318255882969</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.31277492632279902</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.32053914020678798</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.19782202315321001</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.13911546484374601</v>
+      </c>
+      <c r="K47" s="2">
+        <v>9.4979970678124706E-2</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2.39829381134074E-2</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <f>B47-B46</f>
+        <v>7.7132335169809996E-2</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" ref="C48:L48" si="14">C47-C46</f>
+        <v>7.2378641780425967E-2</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="14"/>
+        <v>5.9898841205408004E-2</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="14"/>
+        <v>5.366689132550001E-2</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="14"/>
+        <v>5.8298121654781987E-2</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="14"/>
+        <v>3.0895731691926998E-2</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="14"/>
+        <v>4.1344509334305002E-2</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="14"/>
+        <v>2.8694506374687012E-2</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="14"/>
+        <v>1.4283250078646018E-2</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3100776047252308E-2</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="14"/>
         <v>9.2178374422665008E-3</v>
       </c>
-      <c r="M45"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49">
+        <v>0.62346939903204801</v>
+      </c>
+      <c r="C49">
+        <v>0.55694528167816904</v>
+      </c>
+      <c r="D49">
+        <v>0.47790791194139498</v>
+      </c>
+      <c r="E49">
+        <v>0.44921611552572599</v>
+      </c>
+      <c r="F49">
+        <v>0.37076502251153198</v>
+      </c>
+      <c r="G49">
+        <v>0.31530094174544998</v>
+      </c>
+      <c r="H49">
+        <v>0.237705779239932</v>
+      </c>
+      <c r="I49">
+        <v>0.188647788505168</v>
+      </c>
+      <c r="J49">
+        <v>0.123328528443714</v>
+      </c>
+      <c r="K49">
+        <v>5.3566900680018903E-2</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
       <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50">
+        <v>0.602482347366463</v>
+      </c>
+      <c r="C50">
+        <v>0.54237865708691702</v>
+      </c>
+      <c r="D50">
+        <v>0.47828884910463298</v>
+      </c>
+      <c r="E50">
+        <v>0.42481718068461199</v>
+      </c>
+      <c r="F50">
+        <v>0.35342281710915202</v>
+      </c>
+      <c r="G50">
+        <v>0.30339505512076798</v>
+      </c>
+      <c r="H50">
+        <v>0.243524680509181</v>
+      </c>
+      <c r="I50">
+        <v>0.17445282133947801</v>
+      </c>
+      <c r="J50">
+        <v>0.12765540018742</v>
+      </c>
+      <c r="K50">
+        <v>5.7186935390464898E-2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
       <c r="M50"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <f>B50-B49</f>
+        <v>-2.098705166558501E-2</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" ref="C51:L51" si="15">C50-C49</f>
+        <v>-1.456662459125202E-2</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="15"/>
+        <v>3.8093716323800431E-4</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="15"/>
+        <v>-2.4398934841113995E-2</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="15"/>
+        <v>-1.7342205402379962E-2</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="15"/>
+        <v>-1.1905886624682005E-2</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="15"/>
+        <v>5.8189012692489994E-3</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="15"/>
+        <v>-1.4194967165689992E-2</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="15"/>
+        <v>4.3268717437059956E-3</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="15"/>
+        <v>3.6200347104459948E-3</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -15612,8 +15783,33 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -15626,19 +15822,8 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -15652,21 +15837,7 @@
       <c r="L55"/>
       <c r="M55"/>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -15679,8 +15850,33 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -15693,19 +15889,8 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -15719,21 +15904,7 @@
       <c r="L60"/>
       <c r="M60"/>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -15746,8 +15917,33 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -15760,19 +15956,8 @@
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -15786,21 +15971,7 @@
       <c r="L65"/>
       <c r="M65"/>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -15813,8 +15984,33 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -15827,19 +16023,8 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -15853,21 +16038,7 @@
       <c r="L70"/>
       <c r="M70"/>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -15880,6 +16051,59 @@
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115EAB4-C552-403B-9986-08DB6FEDAC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014767DF-AC1D-4215-9CF9-E2F86B4F5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
     <t>cat</t>
   </si>
   <si>
-    <t>bert-e2e-absa</t>
+    <t>bert</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.25537825059101654"/>
-          <c:y val="0.19907407407407407"/>
+          <c:y val="7.2090051243594536E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -671,8 +671,135 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1.6589861751151957E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.608294930875001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2949308755760343E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.857142857142897E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8433179723502002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.2949308755759787E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6082949308760002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.6866359447009778E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2165898617510011E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8433179723501975E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A63-41AB-A7FA-D4A2EBACDF9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$46</c:f>
@@ -801,7 +928,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$8</c:f>
@@ -930,7 +1057,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -1059,7 +1186,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -1187,135 +1314,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ctm-z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$13:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.7857142857142898E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3392857142857201E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3392857142857099E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4285714285714301E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4285714285714301E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6964285714285703E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1607142857142799E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3571428571429006E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1607142857142901E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.3571428571427999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4D31-43ED-802A-688B4240920A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -1444,7 +1444,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -1579,6 +1579,157 @@
         </c:dLbls>
         <c:axId val="1057650367"/>
         <c:axId val="1057648927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ctm-z</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="7"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$13:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1.7857142857142898E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.3392857142857201E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.5000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.3392857142857099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.4285714285714301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.4285714285714301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.6964285714285703E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.1607142857142799E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.3571428571429006E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.1607142857142901E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.3571428571427999E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-4D31-43ED-802A-688B4240920A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1057650367"/>
@@ -1690,7 +1841,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
-          <c:min val="-0.1"/>
+          <c:min val="-5.000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1814,10 +1965,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73997671657072139"/>
+          <c:x val="0.69565044396046238"/>
           <c:y val="0.15697679237463738"/>
-          <c:w val="0.24210190657335046"/>
-          <c:h val="0.49224261441004086"/>
+          <c:w val="0.28642825896762902"/>
+          <c:h val="0.5477980877390326"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1932,7 +2083,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.25537825059101654"/>
-          <c:y val="0.19907407407407407"/>
+          <c:y val="8.0026559180102472E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1968,8 +2119,135 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$51:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.098705166558501E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.456662459125202E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8093716323800431E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4398934841113995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7342205402379962E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1905886624682005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8189012692489994E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4194967165689992E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3268717437059956E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6200347104459948E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C996-4054-85A5-6497DBE1B91F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$46</c:f>
@@ -2098,7 +2376,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$34</c:f>
@@ -2227,7 +2505,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -2356,7 +2634,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -2484,135 +2762,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ctm-z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.2939855568167199E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8486971643020201E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.69372129374192E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7961961123800899E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.56948242418E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.01375289234638E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.79849725922714E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.53447916623026E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.38685188147262E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.23050926075557E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.0922371243753004E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-87CC-4727-9430-CBCD7232E93B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -2741,7 +2892,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -2876,6 +3027,157 @@
         </c:dLbls>
         <c:axId val="1057650367"/>
         <c:axId val="1057648927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ctm-z</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="7"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$39:$L$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>2.2939855568167199E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.8486971643020201E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.69372129374192E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.7961961123800899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.56948242418E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.01375289234638E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.79849725922714E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.53447916623026E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.38685188147262E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.23050926075557E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.0922371243753004E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-87CC-4727-9430-CBCD7232E93B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1057650367"/>
@@ -2987,7 +3289,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
-          <c:min val="-0.1"/>
+          <c:min val="-5.000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3111,9 +3413,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73264250719099311"/>
+          <c:x val="0.6824060888665513"/>
           <c:y val="0.17201438635959979"/>
-          <c:w val="0.24509410796633194"/>
+          <c:w val="0.2953305038997785"/>
           <c:h val="0.50352080989876269"/>
         </c:manualLayout>
       </c:layout>
@@ -4285,8 +4587,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>39445</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>189380</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>75080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4321,8 +4623,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>700591</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>188259</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13623,8 +13925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C04FC8-98B4-4D21-B973-8DC25D99D0AA}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Laptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014767DF-AC1D-4215-9CF9-E2F86B4F5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAB0C4B-4980-480D-ABE9-08C375A8DBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16110" windowHeight="12990" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,9 +624,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>semeval-14-laptop</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -634,7 +635,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25537825059101654"/>
+          <c:x val="0.27606382978723404"/>
           <c:y val="7.2090051243594536E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1840,8 +1841,8 @@
         <c:axId val="1057648927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
-          <c:min val="-5.000000000000001E-2"/>
+          <c:max val="0.30000000000000004"/>
+          <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1946,6 +1947,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.000000000000001E-2"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1965,10 +1967,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69565044396046238"/>
+          <c:x val="0.68974027847582886"/>
           <c:y val="0.15697679237463738"/>
-          <c:w val="0.28642825896762902"/>
-          <c:h val="0.5477980877390326"/>
+          <c:w val="0.30711383816384652"/>
+          <c:h val="0.60732189726284203"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1984,7 +1986,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2072,9 +2074,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>semeval-14-laptop</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2082,8 +2085,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25537825059101654"/>
-          <c:y val="8.0026559180102472E-2"/>
+          <c:x val="0.27310874704491728"/>
+          <c:y val="8.0026559180102486E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3288,8 +3291,8 @@
         <c:axId val="1057648927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
-          <c:min val="-5.000000000000001E-2"/>
+          <c:max val="0.30000000000000004"/>
+          <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3394,6 +3397,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.000000000000001E-2"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -3413,10 +3417,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6824060888665513"/>
-          <c:y val="0.17201438635959979"/>
-          <c:w val="0.2953305038997785"/>
-          <c:h val="0.50352080989876269"/>
+          <c:x val="0.69718150257813516"/>
+          <c:y val="0.16804618172728408"/>
+          <c:w val="0.29828558664209531"/>
+          <c:h val="0.59479065116860397"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3432,7 +3436,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4586,7 +4590,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>39445</xdr:colOff>
+      <xdr:colOff>31441</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>75080</xdr:rowOff>
     </xdr:to>
@@ -4622,7 +4626,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>700591</xdr:colOff>
+      <xdr:colOff>661370</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>73959</xdr:rowOff>
     </xdr:to>
@@ -13925,8 +13929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C04FC8-98B4-4D21-B973-8DC25D99D0AA}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:AC30"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
+++ b/output/SemEval-14/Laptop/agg.pred.eval.mean.10.all.0.0-1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Laptop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAB0C4B-4980-480D-ABE9-08C375A8DBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7395D544-3811-482F-8ACE-A7EBB3F1ECC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16110" windowHeight="12990" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B9884E6F-C043-4866-8720-8794D1E60E24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
     <t>cat</t>
   </si>
   <si>
-    <t>bert</t>
+    <t>bert-tfm</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bert</c:v>
+                  <c:v>bert-tfm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2130,7 +2130,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bert</c:v>
+                  <c:v>bert-tfm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13929,8 +13929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C04FC8-98B4-4D21-B973-8DC25D99D0AA}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
